--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value545.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value545.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.821784941232813</v>
+        <v>1.481502056121826</v>
       </c>
       <c r="B1">
-        <v>0.8844368207132649</v>
+        <v>1.802323460578918</v>
       </c>
       <c r="C1">
-        <v>1.02106477004905</v>
+        <v>1.985083937644958</v>
       </c>
       <c r="D1">
-        <v>1.669099459697056</v>
+        <v>2.256146430969238</v>
       </c>
       <c r="E1">
-        <v>3.611311034156735</v>
+        <v>2.899929761886597</v>
       </c>
     </row>
   </sheetData>
